--- a/ProLeiTAG/Massafra/Update/Values/dbIdcImport/S21.xlsx
+++ b/ProLeiTAG/Massafra/Update/Values/dbIdcImport/S21.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dso/ProLeiT/Massafra/MassafraSQL/ProLeiTAG/Massafra/Update/Values/dbIdcImport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.20.205.11\Massafra\MassafraSQL\ProLeiTAG\Massafra\Update\Values\dbIdcImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553719D1-B592-B243-8CBC-82BF8A65534F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9520" yWindow="-21600" windowWidth="51200" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="4575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="LiTSeqSupplValues" sheetId="5" r:id="rId3"/>
     <sheet name="LiTSeqSupplFunctions" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="N2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="U2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="V2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,12 +123,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -231,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -266,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -286,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="R2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -308,7 +307,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="S2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -329,12 +328,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -356,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -375,7 +374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="N2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -400,7 +399,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+    <comment ref="P2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -416,7 +415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
+    <comment ref="T2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -437,7 +436,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
+    <comment ref="V2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -459,7 +458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
+    <comment ref="W2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -480,7 +479,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="168">
   <si>
     <t>LiTProfileParam</t>
   </si>
@@ -569,9 +568,6 @@
     <t>Report mode [23]</t>
   </si>
   <si>
-    <t>01 Production</t>
-  </si>
-  <si>
     <t>sec</t>
   </si>
   <si>
@@ -851,9 +847,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>[SEQ(SEQ_021)].CurrentStep(Function[15].Actual)</t>
-  </si>
-  <si>
     <t>50</t>
   </si>
   <si>
@@ -974,9 +967,6 @@
     <t>13</t>
   </si>
   <si>
-    <t>QT05_00_07.sActualValue</t>
-  </si>
-  <si>
     <t>EBC</t>
   </si>
   <si>
@@ -990,12 +980,15 @@
   </si>
   <si>
     <t>New Value 29 probably the same with existing value 18</t>
+  </si>
+  <si>
+    <t>[PROFILE_01]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1091,7 +1084,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1101,6 +1094,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1380,28 +1374,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1410,42 +1404,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.1640625" style="3"/>
-    <col min="21" max="21" width="12.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.1640625" style="3"/>
+    <col min="16" max="16" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="3"/>
+    <col min="21" max="21" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1483,7 +1477,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1551,7 +1545,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1559,64 +1553,62 @@
         <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="M3" s="5"/>
+      <c r="N3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="O3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P3" s="3">
         <v>0</v>
       </c>
       <c r="Q3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="T3" s="3">
         <v>1</v>
       </c>
       <c r="U3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1626,7 +1618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1634,35 +1626,35 @@
       <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="50" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1640625" style="3"/>
-    <col min="18" max="18" width="20.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.1640625" style="3"/>
+    <col min="16" max="16" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="3"/>
+    <col min="18" max="18" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
@@ -1692,66 +1684,66 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="N2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>75</v>
-      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1759,55 +1751,55 @@
         <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>1</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>58</v>
-      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1815,55 +1807,55 @@
         <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>1</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>58</v>
-      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1871,55 +1863,55 @@
         <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>1</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>58</v>
-      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -1927,55 +1919,55 @@
         <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>1</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>1</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="S6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1983,55 +1975,55 @@
         <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1</v>
+      </c>
+      <c r="R7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>1</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="S7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -2039,55 +2031,55 @@
         <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1</v>
+      </c>
+      <c r="R8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="S8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -2095,55 +2087,55 @@
         <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>1</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="S9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -2151,55 +2143,55 @@
         <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1</v>
+      </c>
+      <c r="R10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>1</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="S10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -2207,55 +2199,55 @@
         <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="F11" s="3">
         <v>30</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="3">
         <v>1</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -2263,55 +2255,55 @@
         <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="3">
+        <v>31</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1</v>
+      </c>
+      <c r="R12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="3">
-        <v>31</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>1</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="S12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -2319,55 +2311,55 @@
         <v>21</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="F13" s="3">
         <v>32</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="3">
         <v>1</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -2375,55 +2367,55 @@
         <v>21</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="F14" s="3">
         <v>34</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="3">
         <v>1</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -2431,55 +2423,55 @@
         <v>21</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="F15" s="3">
         <v>37</v>
       </c>
       <c r="G15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>1</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>1</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>58</v>
-      </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -2487,55 +2479,55 @@
         <v>21</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="F16" s="3">
         <v>38</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>1</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>1</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>58</v>
-      </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -2543,55 +2535,55 @@
         <v>21</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F17" s="3">
         <v>39</v>
       </c>
       <c r="G17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>58</v>
-      </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -2599,55 +2591,55 @@
         <v>21</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>1</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>1</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>58</v>
-      </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>1</v>
       </c>
@@ -2655,55 +2647,55 @@
         <v>21</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>1</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>1</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>58</v>
-      </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>1</v>
       </c>
@@ -2711,55 +2703,55 @@
         <v>21</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>1</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>1</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>58</v>
-      </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>1</v>
       </c>
@@ -2767,55 +2759,55 @@
         <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="F21" s="3">
         <v>61</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q21" s="3">
         <v>2</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>1</v>
       </c>
@@ -2823,52 +2815,52 @@
         <v>21</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>1</v>
+      </c>
+      <c r="R22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="S22" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>1</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2879,47 +2871,47 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C6"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="50.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="50.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.1640625" style="3"/>
+    <col min="16" max="16" width="8.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="3"/>
     <col min="20" max="20" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.1640625" style="3"/>
+    <col min="21" max="21" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
@@ -2953,78 +2945,78 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="C2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="S2" s="4" t="s">
         <v>25</v>
       </c>
       <c r="T2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="V2" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>120</v>
-      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -3032,70 +3024,68 @@
         <v>21</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="J3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>123</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="M3" s="7"/>
       <c r="N3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O3" s="3">
         <v>0</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S3" s="3">
         <v>1</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -3103,70 +3093,68 @@
         <v>21</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>123</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="M4" s="7"/>
       <c r="N4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O4" s="3">
         <v>0</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S4" s="3">
         <v>1</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -3174,142 +3162,141 @@
         <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="J5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>123</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="M5" s="7"/>
       <c r="N5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O5" s="3">
         <v>0</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S5" s="3">
         <v>1</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" s="3">
         <v>21</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>42</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="J6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O6" s="3">
         <v>0</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S6" s="3">
         <v>1</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>